--- a/Test Analysis.xlsx
+++ b/Test Analysis.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://streamdc-my.sharepoint.com/personal/jgilles_stream-dc_com/Documents/Documents/GitHub/arcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="8_{E2ECCC92-8CDA-4C1C-9B55-A451AEE83BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48385C62-1184-49FE-BA1B-990E2BC2A90A}"/>
+  <xr:revisionPtr revIDLastSave="1405" documentId="8_{E2ECCC92-8CDA-4C1C-9B55-A451AEE83BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F84F0083-23DD-41AB-BA5E-7420A4C08964}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{0FD67C8E-507F-4D44-AA2D-1B9996606446}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1365" windowWidth="21600" windowHeight="12540" activeTab="4" xr2:uid="{0FD67C8E-507F-4D44-AA2D-1B9996606446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="128">
   <si>
     <t>Sample</t>
   </si>
@@ -225,6 +227,204 @@
   <si>
     <t>Cumulative</t>
   </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>damaged</t>
+  </si>
+  <si>
+    <t>8 = 3,2</t>
+  </si>
+  <si>
+    <t>2HC</t>
+  </si>
+  <si>
+    <t>1HC 1DC</t>
+  </si>
+  <si>
+    <t>2DC</t>
+  </si>
+  <si>
+    <t>1HC 1HS</t>
+  </si>
+  <si>
+    <t>1HC 1DS</t>
+  </si>
+  <si>
+    <t>1DC 1DS</t>
+  </si>
+  <si>
+    <t>2HS</t>
+  </si>
+  <si>
+    <t>1HS 1DS</t>
+  </si>
+  <si>
+    <t>2DS</t>
+  </si>
+  <si>
+    <t>1HC</t>
+  </si>
+  <si>
+    <t>1DC</t>
+  </si>
+  <si>
+    <t>1HS</t>
+  </si>
+  <si>
+    <t>1DS</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>HPs</t>
+  </si>
+  <si>
+    <t>1 DAMAGE</t>
+  </si>
+  <si>
+    <t>Outrage</t>
+  </si>
+  <si>
+    <t>Trophies</t>
+  </si>
+  <si>
+    <t>2 DAMAGE</t>
+  </si>
+  <si>
+    <t>3 DAMAGE</t>
+  </si>
+  <si>
+    <t>4 DAMAGE</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>HP Avaliable</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Spaceports</t>
+  </si>
+  <si>
+    <t>Degrees of freedom</t>
+  </si>
+  <si>
+    <t>Hits to assign</t>
+  </si>
+  <si>
+    <t>HP avaliable</t>
+  </si>
+  <si>
+    <t>Revised deg of freedom</t>
+  </si>
+  <si>
+    <t>Deg of freedom</t>
+  </si>
+  <si>
+    <t>DH1</t>
+  </si>
+  <si>
+    <t>DH1-2</t>
+  </si>
+  <si>
+    <t>Critical Capacity</t>
+  </si>
+  <si>
+    <t>DH1-3</t>
+  </si>
+  <si>
+    <t>DH1-4</t>
+  </si>
+  <si>
+    <t>DH1-5</t>
+  </si>
+  <si>
+    <t>8MW</t>
+  </si>
+  <si>
+    <t>16MW</t>
+  </si>
+  <si>
+    <t>24MW</t>
+  </si>
+  <si>
+    <t>32MW</t>
+  </si>
+  <si>
+    <t>40MW</t>
+  </si>
+  <si>
+    <t>Data Halls</t>
+  </si>
+  <si>
+    <t>N Mech Lineups</t>
+  </si>
+  <si>
+    <t>N+1 Mech Lineups</t>
+  </si>
+  <si>
+    <t>Assign the hit points back such that the number of each is not greater than the number that we started with</t>
+  </si>
+  <si>
+    <t>hits max</t>
+  </si>
+  <si>
+    <t>hits min</t>
+  </si>
+  <si>
+    <t>hits selected</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>points after</t>
+  </si>
+  <si>
+    <t>HD Revised</t>
+  </si>
+  <si>
+    <t>max points after</t>
+  </si>
+  <si>
+    <t>hits remaining</t>
+  </si>
+  <si>
+    <t>HC Revised</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SC Revised</t>
+  </si>
+  <si>
+    <t>SD Revised</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +513,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -337,7 +549,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -349,6 +560,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2113,35 +2330,35 @@
       </c>
       <c r="B9">
         <f ca="1">_xlfn.NORM.INV(RAND(),B$4,B$5)</f>
-        <v>53.131348305056903</v>
+        <v>52.083406316954658</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:I24" ca="1" si="3">_xlfn.NORM.INV(RAND(),C$4,C$5)</f>
-        <v>118.09111743755255</v>
+        <v>87.04912313456424</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>65.93057833778326</v>
+        <v>62.587539847984587</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>10.048909172748711</v>
+        <v>18.942402389909489</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>36.550014808379693</v>
+        <v>73.734675265969074</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>109.69461346853373</v>
+        <v>84.97479078048265</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>46.78130262015393</v>
+        <v>93.186985558617266</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>58.665467161628513</v>
+        <v>72.0255697754843</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2209,35 +2426,35 @@
       </c>
       <c r="B10">
         <f t="shared" ref="B10:I39" ca="1" si="5">_xlfn.NORM.INV(RAND(),B$4,B$5)</f>
-        <v>53.831865620021944</v>
+        <v>25.978559534353664</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>56.618928393939527</v>
+        <v>69.882913945987724</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>67.126642776672526</v>
+        <v>63.383480342147877</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>24.778554420233636</v>
+        <v>34.243761399052168</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>53.219405772847729</v>
+        <v>14.417019374190652</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>162.13273599708714</v>
+        <v>180.40188834553518</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>49.144750702813802</v>
+        <v>88.223921460492065</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>98.723179044588733</v>
+        <v>81.947122614665204</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -2311,35 +2528,35 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="5"/>
-        <v>45.174218174811735</v>
+        <v>20.730038666636418</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>27.684288855005235</v>
+        <v>46.499997179214333</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>93.544475770550491</v>
+        <v>66.351355956195221</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>22.130425952503753</v>
+        <v>29.436906192058974</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>76.667034872785607</v>
+        <v>13.748350475083164</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>135.37880084003095</v>
+        <v>116.45242978484757</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>57.891498301269728</v>
+        <v>92.490802190192014</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>69.156961125800876</v>
+        <v>104.13863707865278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2416,35 +2633,35 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="5"/>
-        <v>59.73029347172929</v>
+        <v>82.012602999410689</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>145.31135154002936</v>
+        <v>135.84350105076365</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>79.298629881041492</v>
+        <v>42.539297116303096</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>17.722692387225504</v>
+        <v>20.073795036300595</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>84.454774893234514</v>
+        <v>26.471599424274565</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>47.598035822432607</v>
+        <v>66.518288332364946</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>131.88408858507859</v>
+        <v>75.822530628689066</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>89.556483806489382</v>
+        <v>106.2760793671256</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2521,35 +2738,35 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="5"/>
-        <v>50.114336243094321</v>
+        <v>46.492784745909582</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>145.3451630934637</v>
+        <v>97.372205056869333</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>55.626223932901617</v>
+        <v>72.857895744351168</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.949724238588507</v>
+        <v>1.7981118110166676</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="3"/>
-        <v>118.4068932787491</v>
+        <v>65.924096063472476</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>153.60774650156739</v>
+        <v>112.32273746801911</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>47.322708095522785</v>
+        <v>98.310297566660836</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>73.329972003774316</v>
+        <v>51.668728125622508</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2626,35 +2843,35 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="5"/>
-        <v>31.068985592850126</v>
+        <v>57.925082308220325</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>76.593466972218778</v>
+        <v>118.97473726375392</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>83.646330310446658</v>
+        <v>106.10525733443399</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>22.498573752968074</v>
+        <v>15.131065368735115</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="3"/>
-        <v>71.581212392555358</v>
+        <v>61.973037589105068</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>105.72378788909867</v>
+        <v>119.28642913981034</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>88.32628682724058</v>
+        <v>109.988677759027</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>68.840413125637681</v>
+        <v>78.59763543167</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2722,35 +2939,35 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="5"/>
-        <v>39.844108589620532</v>
+        <v>34.702353738520799</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>121.7565119272018</v>
+        <v>107.31226755595596</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>65.027829344672057</v>
+        <v>55.732489884130786</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>22.193881237464407</v>
+        <v>26.208194083549934</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>117.80357023323586</v>
+        <v>57.659408948779394</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>121.28722981675604</v>
+        <v>166.3095129680828</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>130.62383298089924</v>
+        <v>77.543514131919764</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>104.68112825755047</v>
+        <v>89.947941844218334</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2818,35 +3035,35 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="5"/>
-        <v>44.375442601707121</v>
+        <v>70.980964135870153</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>141.86594974157353</v>
+        <v>68.072295117044831</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>94.066991125960769</v>
+        <v>95.089862116980214</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>31.659969134057427</v>
+        <v>0.12294956360771891</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>71.167307038013206</v>
+        <v>66.117799443778367</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>109.34136004567456</v>
+        <v>113.58609699118925</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>125.43779581927878</v>
+        <v>127.73153690026027</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>79.194694399727652</v>
+        <v>97.769145933502983</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2882,35 +3099,35 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="5"/>
-        <v>39.021626217262806</v>
+        <v>34.648779700750005</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>118.32690896036273</v>
+        <v>77.234449824031373</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>86.358973971702937</v>
+        <v>82.449735729025264</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>12.237558457048582</v>
+        <v>10.507110416989429</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>104.75839546383685</v>
+        <v>60.292341406002222</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>93.39206377934471</v>
+        <v>112.14852921241334</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>49.89155541757512</v>
+        <v>50.73332949493777</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>75.912476777642865</v>
+        <v>84.79524800051685</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2946,35 +3163,35 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="5"/>
-        <v>83.793086427139755</v>
+        <v>61.964165127391126</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>110.50840818839136</v>
+        <v>68.271433784281683</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>82.955642326032617</v>
+        <v>65.094178674360791</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>14.100405556890886</v>
+        <v>7.2684612700205911</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>99.795451476202047</v>
+        <v>72.163171231393761</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>81.090466912241126</v>
+        <v>40.867031090134304</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>125.09744811406476</v>
+        <v>18.658221515201788</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>118.74029902983284</v>
+        <v>77.828783015030425</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -3013,35 +3230,35 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="5"/>
-        <v>44.504033860990297</v>
+        <v>51.2685073758404</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>88.129027597010008</v>
+        <v>96.544012271824002</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>56.818088545442365</v>
+        <v>83.500012452831413</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>21.449656180313962</v>
+        <v>12.773127231557204</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>110.92901051681724</v>
+        <v>44.163842715405245</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>107.12866987833225</v>
+        <v>103.93447333674787</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>115.16883211024421</v>
+        <v>68.344889175073121</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
-        <v>85.308493116721593</v>
+        <v>72.253714442231342</v>
       </c>
       <c r="K19">
         <v>11</v>
@@ -3104,35 +3321,35 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="5"/>
-        <v>57.973750866548784</v>
+        <v>53.867982942000921</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>162.00631996063379</v>
+        <v>106.18017883943408</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>86.280649837985564</v>
+        <v>74.426406467385149</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>22.504699913996586</v>
+        <v>35.586961425916371</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>84.473698284660088</v>
+        <v>54.598726391001868</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>115.38914791162046</v>
+        <v>102.56905349876753</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>128.8403976148773</v>
+        <v>64.123023194354346</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>77.532607209843604</v>
+        <v>94.652177388495602</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -3203,35 +3420,35 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="5"/>
-        <v>45.185671576610304</v>
+        <v>50.797634281504827</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>137.17636583422396</v>
+        <v>95.807334729216876</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>110.21427359526852</v>
+        <v>126.58454110918538</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>29.858437296928834</v>
+        <v>18.790841433107243</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>82.775238710700108</v>
+        <v>78.556817865043726</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>65.595176190824802</v>
+        <v>107.9272777816899</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>90.561490650370033</v>
+        <v>118.62898660592028</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>72.017810921388588</v>
+        <v>53.792099027819987</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -3302,35 +3519,35 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="5"/>
-        <v>97.540759027635772</v>
+        <v>39.225513414100007</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>113.22260068712743</v>
+        <v>121.86082718721445</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>94.235072559822356</v>
+        <v>78.483815701737583</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>22.917795486423916</v>
+        <v>27.169984509444092</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>70.63294519562902</v>
+        <v>24.168155250976589</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>215.8636069322778</v>
+        <v>116.14488777252122</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>152.26106457481717</v>
+        <v>69.364399438730999</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>75.909224606239931</v>
+        <v>95.35262459496029</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -3410,35 +3627,35 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="5"/>
-        <v>59.380954199639319</v>
+        <v>72.993744308005191</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>107.59246675689319</v>
+        <v>124.19591507944004</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>84.152898849206707</v>
+        <v>86.599833345002466</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>23.967711928135959</v>
+        <v>20.1056571551993</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>25.600932716924639</v>
+        <v>36.626005231495682</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>153.55207331232381</v>
+        <v>80.173559806482615</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>98.225983765121214</v>
+        <v>45.243268781348149</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
-        <v>111.74707929280792</v>
+        <v>101.89449987584159</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -3521,35 +3738,35 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="5"/>
-        <v>69.195981464837061</v>
+        <v>71.390037544359359</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>73.927855553727852</v>
+        <v>50.860419029367542</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>64.411813740690235</v>
+        <v>73.029844403544118</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>25.553046161110352</v>
+        <v>27.17614275476468</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>48.965674265947342</v>
+        <v>96.763788722655875</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>92.764325690424272</v>
+        <v>54.721425749199774</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>143.10604722671286</v>
+        <v>58.16900182467613</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>92.677888116943819</v>
+        <v>103.8553602912875</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -3632,35 +3849,35 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="5"/>
-        <v>38.390985203579</v>
+        <v>64.737378974360908</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="5"/>
-        <v>105.85600883030831</v>
+        <v>76.477903521862601</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>88.941709344926693</v>
+        <v>95.791446272390459</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>37.976878043272819</v>
+        <v>9.8897438470174688</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>69.620332835340491</v>
+        <v>86.653004122392304</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="5"/>
-        <v>94.164002659962506</v>
+        <v>93.859923839063867</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="5"/>
-        <v>113.06236646355359</v>
+        <v>93.839742236835079</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="5"/>
-        <v>74.251531897022545</v>
+        <v>67.174566496509371</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -3743,35 +3960,35 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="5"/>
-        <v>73.846957056963447</v>
+        <v>18.10497562896224</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>156.87089514086119</v>
+        <v>140.05506387572757</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>93.076265694088505</v>
+        <v>78.287638699039121</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>22.373615874002045</v>
+        <v>21.451377041160779</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>52.360008309743613</v>
+        <v>83.339830979116968</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="5"/>
-        <v>132.9994416522934</v>
+        <v>118.06894317336383</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
-        <v>44.306725346125255</v>
+        <v>62.044882143049314</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="5"/>
-        <v>94.329310170104648</v>
+        <v>88.131287915329096</v>
       </c>
       <c r="K26">
         <v>18</v>
@@ -3854,35 +4071,35 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="5"/>
-        <v>29.033075667349134</v>
+        <v>44.657223033822078</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="5"/>
-        <v>112.23149551921962</v>
+        <v>83.086379909910661</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>86.094738539387293</v>
+        <v>64.04996406437381</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>18.869894850465855</v>
+        <v>22.977174285499707</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>42.877468837480478</v>
+        <v>118.36196616839192</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="5"/>
-        <v>82.273349958573789</v>
+        <v>133.30535052537704</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>46.894609082299098</v>
+        <v>103.39380391903849</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="5"/>
-        <v>109.94090233833505</v>
+        <v>83.763237929138811</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3965,35 +4182,35 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="5"/>
-        <v>70.515772390806831</v>
+        <v>64.483805665197607</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="5"/>
-        <v>65.766008787302098</v>
+        <v>192.83047577882638</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>63.974804230686019</v>
+        <v>52.14677179621161</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>39.153055145048995</v>
+        <v>29.325462587184763</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>35.133335140785114</v>
+        <v>31.723546511127548</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="5"/>
-        <v>46.521080941353887</v>
+        <v>121.14988434769481</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>115.91165193810588</v>
+        <v>91.178598807152341</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="5"/>
-        <v>95.316939882118803</v>
+        <v>63.956003938176679</v>
       </c>
       <c r="K28">
         <v>20</v>
@@ -4076,35 +4293,35 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="5"/>
-        <v>42.993212849368533</v>
+        <v>55.379779292675181</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="5"/>
-        <v>51.736604097149872</v>
+        <v>69.981905921347334</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>85.903321937959845</v>
+        <v>91.458186003079319</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>20.336768345632606</v>
+        <v>-7.4044847999681771</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>52.739511468454509</v>
+        <v>58.82749014538399</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="5"/>
-        <v>124.35896339876703</v>
+        <v>62.526349308746454</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
-        <v>62.914016780993606</v>
+        <v>52.99145369257927</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="5"/>
-        <v>88.865563742597686</v>
+        <v>105.51002224419322</v>
       </c>
       <c r="K29">
         <v>21</v>
@@ -4187,35 +4404,35 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="5"/>
-        <v>84.828735628432412</v>
+        <v>18.332665890117397</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="5"/>
-        <v>77.868314705380371</v>
+        <v>111.53977506585917</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>65.734028223517981</v>
+        <v>64.756439328992997</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>35.992016834119411</v>
+        <v>9.2230093625735279</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>51.06853100566827</v>
+        <v>65.749772259820347</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="5"/>
-        <v>28.403396415238461</v>
+        <v>142.98306967027122</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
-        <v>102.00342562898551</v>
+        <v>69.802769715281954</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="5"/>
-        <v>55.74967158892931</v>
+        <v>89.690850696259531</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -4298,35 +4515,35 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="5"/>
-        <v>89.829042656349657</v>
+        <v>41.271475894420348</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="5"/>
-        <v>68.739121211352796</v>
+        <v>100.58663017347176</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>85.36967023950352</v>
+        <v>80.16381325165051</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>21.94506533817562</v>
+        <v>9.0274146782949867</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>-14.228116506574253</v>
+        <v>67.265737370130523</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="5"/>
-        <v>130.80099061969466</v>
+        <v>111.93892468819249</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>75.514372154690165</v>
+        <v>93.081272400857941</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>49.737445960101205</v>
+        <v>81.334733961556481</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -4362,35 +4579,35 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="5"/>
-        <v>34.075122775323621</v>
+        <v>44.226998679548124</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="5"/>
-        <v>113.89118487003685</v>
+        <v>112.93183378695696</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>86.197663842160296</v>
+        <v>53.435779743054042</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9936957637705248</v>
+        <v>1.782530386207295</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>97.345425010099888</v>
+        <v>56.638178173264848</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="5"/>
-        <v>148.34589891017387</v>
+        <v>74.863744393823367</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>114.95103985107448</v>
+        <v>80.995213701133594</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="5"/>
-        <v>86.288935718255473</v>
+        <v>103.20507437526618</v>
       </c>
       <c r="K32">
         <v>24</v>
@@ -4456,35 +4673,35 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.91965516362353128</v>
+        <v>68.1626097127305</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="5"/>
-        <v>87.594599343414657</v>
+        <v>99.579722746498291</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>94.558614496521301</v>
+        <v>63.268111763842015</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.2719708065590787</v>
+        <v>2.0660223600843395</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>37.383667444741441</v>
+        <v>14.526249296760838</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="5"/>
-        <v>76.266482562060588</v>
+        <v>76.161463512318278</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>124.08800788894517</v>
+        <v>89.060995266098757</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="5"/>
-        <v>95.612798225912925</v>
+        <v>75.57147363521112</v>
       </c>
       <c r="K33">
         <v>25</v>
@@ -4560,35 +4777,35 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>38.536214846962359</v>
+        <v>90.492651153357244</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="5"/>
-        <v>123.89375010630451</v>
+        <v>101.88477423681989</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="5"/>
-        <v>75.889923085278426</v>
+        <v>86.537230893111541</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>18.145108169005045</v>
+        <v>37.703801789343828</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>121.34054364012991</v>
+        <v>37.231516285020014</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="5"/>
-        <v>118.38316307732894</v>
+        <v>93.240990680801673</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="5"/>
-        <v>107.9977727772407</v>
+        <v>132.96472236795051</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="5"/>
-        <v>87.531210965604956</v>
+        <v>83.936105962798422</v>
       </c>
       <c r="K34">
         <v>26</v>
@@ -4631,35 +4848,35 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="5"/>
-        <v>62.283063063877805</v>
+        <v>31.229318986986456</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="5"/>
-        <v>152.10596008669481</v>
+        <v>82.363487524014346</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="5"/>
-        <v>78.050448366447299</v>
+        <v>82.371127883347995</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0472737272540886</v>
+        <v>15.85292206888821</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>102.27090461980367</v>
+        <v>51.921957283556232</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="5"/>
-        <v>86.436478707533738</v>
+        <v>78.086173080852234</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>82.881591797618825</v>
+        <v>46.099628908095909</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="5"/>
-        <v>90.4878869803442</v>
+        <v>95.458045120979492</v>
       </c>
       <c r="K35">
         <v>27</v>
@@ -4695,35 +4912,35 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>79.429892422703361</v>
+        <v>41.046322491986999</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="5"/>
-        <v>86.467608312829611</v>
+        <v>138.31621064895575</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="5"/>
-        <v>64.628665209833343</v>
+        <v>55.945451298436865</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>20.789955377583581</v>
+        <v>35.100204419258048</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>70.996763948890901</v>
+        <v>88.219932181444833</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="5"/>
-        <v>59.847368112133864</v>
+        <v>55.466911678623191</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>100.19872535077486</v>
+        <v>50.732756980197038</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="5"/>
-        <v>77.916392544949048</v>
+        <v>83.792311918329304</v>
       </c>
       <c r="K36">
         <v>28</v>
@@ -4759,35 +4976,35 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>54.42897207490617</v>
+        <v>101.81388318398771</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="5"/>
-        <v>115.66680885440265</v>
+        <v>165.46705294352131</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="5"/>
-        <v>62.972621009653466</v>
+        <v>57.035635499962204</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>20.318942870307986</v>
+        <v>32.761063815587747</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>76.820734004144555</v>
+        <v>85.974623950030079</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="5"/>
-        <v>66.411632313187994</v>
+        <v>105.14159163720296</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>101.39629240912679</v>
+        <v>152.83062042108736</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="5"/>
-        <v>100.05830988158982</v>
+        <v>73.610836835557762</v>
       </c>
       <c r="K37">
         <v>29</v>
@@ -4823,35 +5040,35 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="5"/>
-        <v>52.453074335199013</v>
+        <v>59.388358055121145</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>103.64340940888634</v>
+        <v>94.902942370729122</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="5"/>
-        <v>68.604356584792171</v>
+        <v>69.605989602582795</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>32.697213175673845</v>
+        <v>-1.9036863870792686</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>84.973915601053221</v>
+        <v>52.554405105813181</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="5"/>
-        <v>69.681296933025209</v>
+        <v>96.082991243702082</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>47.523309052730944</v>
+        <v>95.673103171663683</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="5"/>
-        <v>89.776421941777727</v>
+        <v>65.633773893333739</v>
       </c>
       <c r="K38">
         <v>30</v>
@@ -4887,35 +5104,35 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="5"/>
-        <v>34.665055650981216</v>
+        <v>76.346964244359469</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>150.33115071834112</v>
+        <v>139.04038966497259</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="5"/>
-        <v>52.731626804847508</v>
+        <v>56.885456867021837</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>12.74638560263609</v>
+        <v>37.527597334012341</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>50.420298541447664</v>
+        <v>103.76105145232998</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="5"/>
-        <v>141.27050296671345</v>
+        <v>78.655537573784386</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>125.89671129149121</v>
+        <v>77.423669151467692</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="5"/>
-        <v>98.994593212401654</v>
+        <v>101.1067289741611</v>
       </c>
       <c r="K39">
         <v>31</v>
@@ -4951,35 +5168,35 @@
       </c>
       <c r="B40">
         <f t="shared" ref="B40:I64" ca="1" si="31">_xlfn.NORM.INV(RAND(),B$4,B$5)</f>
-        <v>36.073613832754702</v>
+        <v>65.826021841717704</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="31"/>
-        <v>101.75988573810739</v>
+        <v>62.496124279962594</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="31"/>
-        <v>80.556350881755407</v>
+        <v>96.369638426595998</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="31"/>
-        <v>28.701334395754628</v>
+        <v>11.034502435868296</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="31"/>
-        <v>-6.2928998475561855</v>
+        <v>48.756520729564762</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="31"/>
-        <v>99.606988344171754</v>
+        <v>120.41609136149114</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="31"/>
-        <v>96.268744103877353</v>
+        <v>85.368001744640168</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="31"/>
-        <v>79.46507011838365</v>
+        <v>113.96801903818978</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -5015,35 +5232,35 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="31"/>
-        <v>83.955874505801418</v>
+        <v>52.539458118459322</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="31"/>
-        <v>142.75694847830613</v>
+        <v>99.624990834104622</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="31"/>
-        <v>85.077529610245762</v>
+        <v>69.050894673494128</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="31"/>
-        <v>25.407746553586993</v>
+        <v>34.325973010360897</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="31"/>
-        <v>102.55081392010221</v>
+        <v>71.047332788564134</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="31"/>
-        <v>97.474639787814937</v>
+        <v>151.4544556121983</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="31"/>
-        <v>29.285181735534032</v>
+        <v>59.154575328408782</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="31"/>
-        <v>80.904857741636135</v>
+        <v>90.991936286800112</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -5079,35 +5296,35 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="31"/>
-        <v>77.398276117881508</v>
+        <v>40.167463263151902</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="31"/>
-        <v>123.40482780812107</v>
+        <v>105.25264337662877</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="31"/>
-        <v>82.4817063308478</v>
+        <v>71.056584387856532</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="31"/>
-        <v>20.280666543257318</v>
+        <v>26.243283357010178</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="31"/>
-        <v>8.2930166569524957</v>
+        <v>81.775878786688594</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="31"/>
-        <v>60.260072087791052</v>
+        <v>145.24109232875267</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="31"/>
-        <v>79.541236861813047</v>
+        <v>60.17752999039331</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="31"/>
-        <v>87.826811826821569</v>
+        <v>104.13407515412186</v>
       </c>
       <c r="K42">
         <v>34</v>
@@ -5143,35 +5360,35 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="31"/>
-        <v>37.784953685590438</v>
+        <v>55.448890466574824</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="31"/>
-        <v>114.91373122204678</v>
+        <v>50.810077134221864</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="31"/>
-        <v>68.092298013095231</v>
+        <v>81.412460720810614</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="31"/>
-        <v>26.218183473396138</v>
+        <v>27.301084089093191</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="31"/>
-        <v>92.829811306979195</v>
+        <v>64.487257075216945</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="31"/>
-        <v>99.619303552550662</v>
+        <v>113.55958698442396</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="31"/>
-        <v>79.736444083120887</v>
+        <v>113.63352022632404</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="31"/>
-        <v>81.887182986281275</v>
+        <v>78.491460150048155</v>
       </c>
       <c r="K43">
         <v>35</v>
@@ -5207,35 +5424,35 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="31"/>
-        <v>20.981886771981905</v>
+        <v>58.576534048064076</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="31"/>
-        <v>80.060189057108971</v>
+        <v>129.32032745774276</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="31"/>
-        <v>76.792971634923362</v>
+        <v>73.07158295948075</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="31"/>
-        <v>33.959815397390614</v>
+        <v>20.842780159579025</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="31"/>
-        <v>38.579789226017603</v>
+        <v>100.58324594501822</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="31"/>
-        <v>71.269958938541862</v>
+        <v>109.89609550758504</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="31"/>
-        <v>5.6754362558116611</v>
+        <v>64.908006556257405</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="31"/>
-        <v>75.500086512339109</v>
+        <v>69.648854741082616</v>
       </c>
       <c r="K44">
         <v>36</v>
@@ -5271,35 +5488,35 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="31"/>
-        <v>33.442045801114531</v>
+        <v>39.253983080377637</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="31"/>
-        <v>96.944765502923531</v>
+        <v>20.83870241274748</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="31"/>
-        <v>76.211793107851392</v>
+        <v>82.966954457124558</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="31"/>
-        <v>15.064175443862219</v>
+        <v>11.488275808669563</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="31"/>
-        <v>63.497183454101716</v>
+        <v>86.156820171604679</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="31"/>
-        <v>98.075415845699837</v>
+        <v>153.2637588062376</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="31"/>
-        <v>73.597897884914076</v>
+        <v>182.72068456795162</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="31"/>
-        <v>71.952770879242053</v>
+        <v>76.772835293231736</v>
       </c>
       <c r="K45">
         <v>37</v>
@@ -5335,35 +5552,35 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="31"/>
-        <v>63.483272953643528</v>
+        <v>43.218216495684644</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="31"/>
-        <v>110.64974457554081</v>
+        <v>130.19367521489337</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="31"/>
-        <v>81.41446682957374</v>
+        <v>76.909249328799149</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="31"/>
-        <v>16.443206008454759</v>
+        <v>20.128612553318202</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="31"/>
-        <v>97.826003374285108</v>
+        <v>118.82732823682333</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="31"/>
-        <v>90.633246051603336</v>
+        <v>127.03507616353119</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="31"/>
-        <v>106.70971248076646</v>
+        <v>97.289317499153796</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="31"/>
-        <v>90.093378434065215</v>
+        <v>98.999925214760083</v>
       </c>
       <c r="K46">
         <v>38</v>
@@ -5399,35 +5616,35 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="31"/>
-        <v>25.35268989919301</v>
+        <v>59.019296342247713</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="31"/>
-        <v>94.33151759168598</v>
+        <v>89.980444438786861</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="31"/>
-        <v>69.034411728943013</v>
+        <v>85.209138933195689</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="31"/>
-        <v>15.258176152190991</v>
+        <v>30.73929786775415</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="31"/>
-        <v>40.860507754969575</v>
+        <v>103.32013429530068</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="31"/>
-        <v>100.73967095881451</v>
+        <v>45.351908150544958</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="31"/>
-        <v>136.99882159431326</v>
+        <v>110.60706977710281</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="31"/>
-        <v>82.113986351049462</v>
+        <v>109.00506006720545</v>
       </c>
       <c r="K47">
         <v>39</v>
@@ -5463,35 +5680,35 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="31"/>
-        <v>53.7275066743764</v>
+        <v>74.995094020527858</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="31"/>
-        <v>71.48723322480771</v>
+        <v>141.43108291887484</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="31"/>
-        <v>63.801252723808716</v>
+        <v>87.206187106152214</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="31"/>
-        <v>4.6778383973068536</v>
+        <v>14.090164980279152</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="31"/>
-        <v>78.304497507750185</v>
+        <v>91.400509437406697</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="31"/>
-        <v>120.38933002021184</v>
+        <v>152.82510744593861</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="31"/>
-        <v>116.93870293635543</v>
+        <v>98.038574940670586</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="31"/>
-        <v>64.97139590578135</v>
+        <v>88.108137956910838</v>
       </c>
       <c r="K48">
         <v>40</v>
@@ -5527,35 +5744,35 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="31"/>
-        <v>20.905240454947315</v>
+        <v>28.019947484905394</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="31"/>
-        <v>100.23214483503047</v>
+        <v>130.66484903088528</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="31"/>
-        <v>60.727290661564851</v>
+        <v>59.485090722316812</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="31"/>
-        <v>22.736964440048165</v>
+        <v>23.063356601347291</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="31"/>
-        <v>64.369342557878241</v>
+        <v>-0.79789473557686819</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="31"/>
-        <v>98.667785575404025</v>
+        <v>118.42393930383528</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="31"/>
-        <v>81.93559669091934</v>
+        <v>23.650591998349157</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="31"/>
-        <v>94.489087071751513</v>
+        <v>103.3884986867501</v>
       </c>
       <c r="K49">
         <v>41</v>
@@ -5591,35 +5808,35 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="31"/>
-        <v>73.306162242554421</v>
+        <v>49.111027354720292</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="31"/>
-        <v>161.17544088018323</v>
+        <v>161.04249764092066</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="31"/>
-        <v>59.462148263593434</v>
+        <v>47.815909347451111</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="31"/>
-        <v>11.881975342225244</v>
+        <v>31.372651934487024</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="31"/>
-        <v>39.547481699437498</v>
+        <v>108.92051383948916</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="31"/>
-        <v>122.95158122594825</v>
+        <v>106.68605911976832</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="31"/>
-        <v>135.43244381592052</v>
+        <v>129.16586337899287</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="31"/>
-        <v>77.807304695833139</v>
+        <v>110.81519522908359</v>
       </c>
       <c r="K50">
         <v>42</v>
@@ -5655,35 +5872,35 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="31"/>
-        <v>59.378546709064537</v>
+        <v>64.056417773681872</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="31"/>
-        <v>87.787435021143182</v>
+        <v>43.018378848647828</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="31"/>
-        <v>69.960253282345064</v>
+        <v>79.812650690842361</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="31"/>
-        <v>14.837655637484213</v>
+        <v>37.849891047058222</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="31"/>
-        <v>69.466943141600282</v>
+        <v>53.008255734960244</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="31"/>
-        <v>54.168852567625891</v>
+        <v>86.247828504454063</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="31"/>
-        <v>40.647022341354955</v>
+        <v>56.358377302955127</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="31"/>
-        <v>89.576853400001752</v>
+        <v>106.86296754662284</v>
       </c>
       <c r="K51">
         <v>43</v>
@@ -5719,35 +5936,35 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="31"/>
-        <v>76.292287704375823</v>
+        <v>50.636152195300959</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="31"/>
-        <v>127.57996454544586</v>
+        <v>103.96389027444174</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="31"/>
-        <v>57.932542612927222</v>
+        <v>65.434640302544494</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="31"/>
-        <v>15.685877448218559</v>
+        <v>7.1060762106261315</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="31"/>
-        <v>67.667059490371187</v>
+        <v>82.198064398731645</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="31"/>
-        <v>177.44873290618992</v>
+        <v>130.1077622353973</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="31"/>
-        <v>152.20207142143178</v>
+        <v>131.8004869503269</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="31"/>
-        <v>83.783831462001913</v>
+        <v>77.9697464118791</v>
       </c>
       <c r="K52">
         <v>44</v>
@@ -5783,35 +6000,35 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="31"/>
-        <v>41.128854214050804</v>
+        <v>50.662988447736822</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="31"/>
-        <v>47.146685085884947</v>
+        <v>134.0819650556839</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="31"/>
-        <v>87.325733834315912</v>
+        <v>84.264132752825404</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="31"/>
-        <v>20.911352018153398</v>
+        <v>23.294638570225562</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="31"/>
-        <v>52.998990548277909</v>
+        <v>87.998871476255033</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="31"/>
-        <v>146.49805527274938</v>
+        <v>135.65703958300483</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="31"/>
-        <v>90.476445007131019</v>
+        <v>83.692033004446301</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="31"/>
-        <v>88.952557664558896</v>
+        <v>72.056810168320865</v>
       </c>
       <c r="K53">
         <v>45</v>
@@ -5847,35 +6064,35 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="31"/>
-        <v>90.587122559816265</v>
+        <v>33.114289228112142</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="31"/>
-        <v>93.899751579101206</v>
+        <v>99.694111622388476</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="31"/>
-        <v>75.481174400072902</v>
+        <v>66.891098992976964</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="31"/>
-        <v>13.242675330640736</v>
+        <v>21.435409718529975</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="31"/>
-        <v>112.08823573208048</v>
+        <v>89.039520017784895</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="31"/>
-        <v>90.618316289906389</v>
+        <v>171.00880824951008</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="31"/>
-        <v>6.3891837159133047E-2</v>
+        <v>138.84573929394128</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="31"/>
-        <v>104.70641891350488</v>
+        <v>81.497539905927496</v>
       </c>
       <c r="K54">
         <v>46</v>
@@ -5911,35 +6128,35 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="31"/>
-        <v>47.583530903408594</v>
+        <v>51.133540535202016</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="31"/>
-        <v>51.884583564605279</v>
+        <v>101.54171128537506</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="31"/>
-        <v>71.34242806755428</v>
+        <v>67.096395194604497</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="31"/>
-        <v>12.537553755171523</v>
+        <v>6.3629436007466715</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="31"/>
-        <v>36.566448028003308</v>
+        <v>72.493847206369196</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="31"/>
-        <v>153.02478089880611</v>
+        <v>76.411325742431274</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="31"/>
-        <v>74.223555601199408</v>
+        <v>140.63523429370204</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="31"/>
-        <v>83.211273451846424</v>
+        <v>74.92413963573749</v>
       </c>
       <c r="K55">
         <v>47</v>
@@ -5975,35 +6192,35 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="31"/>
-        <v>48.065457142361872</v>
+        <v>34.918924842943269</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="31"/>
-        <v>135.1946293217147</v>
+        <v>127.45326065527389</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="31"/>
-        <v>85.403557928128876</v>
+        <v>72.203217592435792</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="31"/>
-        <v>8.8828502354573597</v>
+        <v>-1.4548364338077775</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="31"/>
-        <v>64.939258988983681</v>
+        <v>22.378655416047877</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="31"/>
-        <v>110.8783246964268</v>
+        <v>127.25719849187846</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.1287847058395215</v>
+        <v>66.444280346539827</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="31"/>
-        <v>76.447582941637506</v>
+        <v>84.31554766382223</v>
       </c>
       <c r="K56">
         <v>48</v>
@@ -6039,35 +6256,35 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="31"/>
-        <v>101.23543256884679</v>
+        <v>66.459278428227222</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="31"/>
-        <v>111.9420507927522</v>
+        <v>138.38995998321349</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="31"/>
-        <v>69.19225233114561</v>
+        <v>106.96817177074874</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="31"/>
-        <v>23.548793851392066</v>
+        <v>24.102294394648805</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="31"/>
-        <v>53.979675874465428</v>
+        <v>4.9024620360415554</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="31"/>
-        <v>106.45836629694051</v>
+        <v>151.21590189786764</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="31"/>
-        <v>43.787474933775741</v>
+        <v>109.97516618397233</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="31"/>
-        <v>93.932340794100199</v>
+        <v>97.066922981997735</v>
       </c>
       <c r="K57">
         <v>49</v>
@@ -6103,35 +6320,35 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="31"/>
-        <v>68.155456625537568</v>
+        <v>65.679958833982298</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="31"/>
-        <v>82.423591513358005</v>
+        <v>111.92119883949806</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="31"/>
-        <v>76.060145551885043</v>
+        <v>76.937075028785955</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="31"/>
-        <v>4.9551796754308626</v>
+        <v>17.33072780981426</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="31"/>
-        <v>55.374751319493775</v>
+        <v>89.45589428950143</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="31"/>
-        <v>132.51207134265337</v>
+        <v>61.069648318676599</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="31"/>
-        <v>106.97522713834982</v>
+        <v>146.84092064598414</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="31"/>
-        <v>68.796526105381133</v>
+        <v>69.346436936955413</v>
       </c>
       <c r="K58">
         <v>50</v>
@@ -6167,35 +6384,35 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="31"/>
-        <v>43.474545135745295</v>
+        <v>75.511957925503836</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="31"/>
-        <v>66.133608969203976</v>
+        <v>71.939936619193062</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="31"/>
-        <v>53.685027344515042</v>
+        <v>48.691689877942736</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="31"/>
-        <v>27.940376953880524</v>
+        <v>21.793240772884477</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="31"/>
-        <v>21.684411511416094</v>
+        <v>108.07507427272839</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="31"/>
-        <v>121.91026760336536</v>
+        <v>89.170589505268438</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="31"/>
-        <v>119.29748338210072</v>
+        <v>157.98658001587762</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="31"/>
-        <v>85.007861452524551</v>
+        <v>101.34309635946873</v>
       </c>
       <c r="K59">
         <v>51</v>
@@ -6231,35 +6448,35 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="31"/>
-        <v>40.216127262161081</v>
+        <v>44.816774935265421</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="31"/>
-        <v>96.712419201043346</v>
+        <v>59.748449072081208</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="31"/>
-        <v>100.43920231259895</v>
+        <v>52.504145325145316</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="31"/>
-        <v>25.245152536112158</v>
+        <v>10.336726253728605</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="31"/>
-        <v>114.0593115370858</v>
+        <v>7.1319942620015837</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="31"/>
-        <v>82.373137167886171</v>
+        <v>73.174457729106791</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="31"/>
-        <v>119.18463256723396</v>
+        <v>46.783678894349165</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="31"/>
-        <v>104.32023843087289</v>
+        <v>87.347563762134556</v>
       </c>
       <c r="K60">
         <v>52</v>
@@ -6295,35 +6512,35 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="31"/>
-        <v>77.841549000786728</v>
+        <v>28.44614752034613</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="31"/>
-        <v>137.95470455195823</v>
+        <v>158.7067199120645</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="31"/>
-        <v>61.792637128368632</v>
+        <v>69.126508561350875</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.4755625928712099</v>
+        <v>22.227783438251489</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="31"/>
-        <v>73.878068681617691</v>
+        <v>48.768738366990263</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="31"/>
-        <v>78.390061789310323</v>
+        <v>89.152965759564339</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="31"/>
-        <v>106.36747035091744</v>
+        <v>77.79882662539211</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="31"/>
-        <v>55.652201509930705</v>
+        <v>104.88111340458573</v>
       </c>
       <c r="K61">
         <v>53</v>
@@ -6359,35 +6576,35 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="31"/>
-        <v>28.499472341596359</v>
+        <v>82.783438746506988</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="31"/>
-        <v>45.166853146872818</v>
+        <v>140.46266145763292</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="31"/>
-        <v>69.333208882293789</v>
+        <v>69.644504733447604</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="31"/>
-        <v>25.620785875366884</v>
+        <v>15.635063658685191</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="31"/>
-        <v>82.009500209108225</v>
+        <v>116.14575099279226</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="31"/>
-        <v>53.326153813727984</v>
+        <v>131.34164197067295</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="31"/>
-        <v>71.94445873719539</v>
+        <v>60.307891760058169</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="31"/>
-        <v>74.811481751211801</v>
+        <v>58.821540285362104</v>
       </c>
       <c r="K62">
         <v>54</v>
@@ -6423,35 +6640,35 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="31"/>
-        <v>68.467759060013094</v>
+        <v>51.401134819221646</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="31"/>
-        <v>57.804514592180347</v>
+        <v>87.390214173101882</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="31"/>
-        <v>65.133863914669547</v>
+        <v>48.577890805941848</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="31"/>
-        <v>20.098489985163727</v>
+        <v>32.309891270885615</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="31"/>
-        <v>66.6780822309927</v>
+        <v>30.338134387350102</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="31"/>
-        <v>152.55199950940525</v>
+        <v>48.063276501650378</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="31"/>
-        <v>168.28376912989086</v>
+        <v>73.635215786938971</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="31"/>
-        <v>78.275523692979803</v>
+        <v>98.061138060958442</v>
       </c>
       <c r="K63">
         <v>55</v>
@@ -6487,35 +6704,35 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="31"/>
-        <v>38.674429984950592</v>
+        <v>38.058548192018414</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="31"/>
-        <v>89.097025512480727</v>
+        <v>153.4036508535722</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="31"/>
-        <v>73.391316518637908</v>
+        <v>75.530731961480626</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="31"/>
-        <v>11.730079697740635</v>
+        <v>9.3351214954108812</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="31"/>
-        <v>75.597694271041988</v>
+        <v>35.476151413801105</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="31"/>
-        <v>50.682137031589363</v>
+        <v>145.77896086987781</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="31"/>
-        <v>90.984616010097227</v>
+        <v>71.829772025453877</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="31"/>
-        <v>90.050084796098503</v>
+        <v>99.374721211634039</v>
       </c>
       <c r="K64">
         <v>56</v>
@@ -10214,7 +10431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A12A1E0-F88E-42EC-BDA8-050AADC30495}">
   <dimension ref="B1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -10230,22 +10447,22 @@
       <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1">
         <v>0</v>
       </c>
-      <c r="Q1" s="9">
-        <v>1</v>
-      </c>
-      <c r="R1" s="9">
-        <v>2</v>
-      </c>
-      <c r="S1" s="9">
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>2</v>
+      </c>
+      <c r="S1">
         <v>3</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1">
         <v>4</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1">
         <v>5</v>
       </c>
     </row>
@@ -10283,34 +10500,34 @@
         <v>57</v>
       </c>
       <c r="P3">
-        <f>2^(P1)-1</f>
+        <f t="shared" ref="P3:U3" si="1">2^(P1)-1</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>2^(Q1)-1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R3">
-        <f>2^(R1)-1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S3">
-        <f>2^(S1)-1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="T3">
-        <f>2^(T1)-1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="U3">
-        <f>2^(U1)-1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J4">
         <f ca="1">RAND()*I21</f>
-        <v>5.4601609783266873</v>
+        <v>3.3684230095868899</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -10356,28 +10573,24 @@
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>0.50496256977924192</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <f>D6</f>
         <v>0.50496256977924192</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
       <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="10" t="str">
         <f>DEC2BIN(K6,4)</f>
         <v>0000</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6">
         <f>SUM($M$6:M6)</f>
         <v>0.5</v>
       </c>
@@ -10390,33 +10603,33 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:U21" si="1">IF(_xlfn.BITAND($K6,2^Q$1)=0,_xlfn.BITOR($K6,2^Q$1-1),"")</f>
+        <f t="shared" ref="Q6:U21" si="2">IF(_xlfn.BITAND($K6,2^Q$1)=0,_xlfn.BITOR($K6,2^Q$1-1),"")</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="9">
         <v>0</v>
       </c>
-      <c r="Y6" s="11" t="str">
+      <c r="Y6" s="10" t="str">
         <f>DEC2BIN(X6,4)</f>
         <v>0000</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="12">
         <f>F7</f>
         <v>1.059860376336164</v>
       </c>
@@ -10429,67 +10642,63 @@
       <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>0.55489780655692211</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="F7">
         <f>SUM(D6:D7)</f>
         <v>1.059860376336164</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
       <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="11" t="str">
-        <f t="shared" ref="L7:L21" si="2">DEC2BIN(K7,4)</f>
+      <c r="L7" s="10" t="str">
+        <f t="shared" ref="L7:L21" si="3">DEC2BIN(K7,4)</f>
         <v>0001</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7">
         <f>SUM($M$6:M7)</f>
         <v>1.05</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" ref="O7:O21" si="3">SUMIFS($M$6:$M$21,$P$6:$P$21,K7)+SUMIFS($M$6:$M$21,$Q$6:$Q$21,K7)+SUMIFS($M$6:$M$21,$R$6:$R$21,K7)+SUMIFS($M$6:$M$21,$S$6:$S$21,K7)+SUMIFS($M$6:$M$21,$T$6:$T$21,K7)+SUMIFS($M$6:$M$21,$U$6:$U$21,K7)</f>
+      <c r="O7" s="12">
+        <f t="shared" ref="O7:O21" si="4">SUMIFS($M$6:$M$21,$P$6:$P$21,K7)+SUMIFS($M$6:$M$21,$Q$6:$Q$21,K7)+SUMIFS($M$6:$M$21,$R$6:$R$21,K7)+SUMIFS($M$6:$M$21,$S$6:$S$21,K7)+SUMIFS($M$6:$M$21,$T$6:$T$21,K7)+SUMIFS($M$6:$M$21,$U$6:$U$21,K7)</f>
         <v>1.05</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" ref="P7:P21" si="4">IF(_xlfn.BITAND($K7,2^P$1)=0,_xlfn.BITOR($K7,2^P$1-1),"")</f>
+        <f t="shared" ref="P7:P21" si="5">IF(_xlfn.BITAND($K7,2^P$1)=0,_xlfn.BITOR($K7,2^P$1-1),"")</f>
         <v/>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11" t="str">
-        <f t="shared" ref="Y7:Y13" si="5">DEC2BIN(X7,4)</f>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f t="shared" ref="Y7:Y13" si="6">DEC2BIN(X7,4)</f>
         <v>0001</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="13">
         <f>G9</f>
         <v>1.9479123316252689</v>
       </c>
@@ -10502,67 +10711,63 @@
       <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>0.16609120312983383</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <f>D8</f>
         <v>0.16609120312983383</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
       <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="L8" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>0010</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8">
         <v>0.16</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8">
         <f>SUM($M$6:M8)</f>
         <v>1.21</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X8" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="X8" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0010</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="12">
         <f>F11</f>
         <v>0.9321649157193741</v>
       </c>
@@ -10575,67 +10780,63 @@
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>0.72196075215927102</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="G9">
         <f>SUM(D6:D9)</f>
         <v>1.9479123316252689</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
       <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="L9" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L9" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>0011</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9">
         <v>0.72</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9">
         <f>SUM($M$6:M9)</f>
         <v>1.93</v>
       </c>
-      <c r="O9" s="14">
-        <f t="shared" si="3"/>
+      <c r="O9" s="13">
+        <f t="shared" si="4"/>
         <v>1.93</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="9">
         <v>3</v>
       </c>
-      <c r="Y9" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y9" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0011</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="14">
         <f>H13</f>
         <v>3.7601541442532129</v>
       </c>
@@ -10648,67 +10849,63 @@
       <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>0.37395535746989206</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <f>D10</f>
         <v>0.37395535746989206</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
       <c r="K10" s="8">
         <v>4</v>
       </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>0100</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10">
         <v>0.37</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
         <f>SUM($M$6:M10)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="9">
         <v>4</v>
       </c>
-      <c r="Y10" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y10" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0100</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="12">
         <f>F15</f>
         <v>5.8083571325157957E-2</v>
       </c>
@@ -10721,67 +10918,63 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>0.55820955824948204</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="F11">
         <f>SUM(D10:D11)</f>
         <v>0.9321649157193741</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
       <c r="K11" s="8">
         <v>5</v>
       </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L11" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>0101</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11">
         <v>0.75</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11">
         <f>SUM($M$6:M11)</f>
         <v>3.05</v>
       </c>
-      <c r="O11" s="13">
-        <f t="shared" si="3"/>
+      <c r="O11" s="12">
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="9">
         <v>5</v>
       </c>
-      <c r="Y11" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y11" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0101</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <f>G17</f>
         <v>1.188309034686216</v>
       </c>
@@ -10794,67 +10987,63 @@
       <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>0.53750399439971375</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <f>D12</f>
         <v>0.53750399439971375</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
       <c r="K12" s="8">
         <v>6</v>
       </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L12" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>0110</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12">
         <v>0.54</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12">
         <f>SUM($M$6:M12)</f>
         <v>3.59</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.54</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="9">
         <v>6</v>
       </c>
-      <c r="Y12" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y12" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0110</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="12">
         <f>F19</f>
         <v>1.435978756910071</v>
       </c>
@@ -10867,67 +11056,63 @@
       <c r="C13" s="8">
         <v>7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>0.34257290250885608</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
+      <c r="H13">
         <f>SUM(D6:D13)</f>
         <v>3.7601541442532129</v>
       </c>
-      <c r="I13" s="9"/>
       <c r="K13" s="8">
         <v>7</v>
       </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L13" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>0111</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13">
         <v>0.34</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13">
         <f>SUM($M$6:M13)</f>
         <v>3.9299999999999997</v>
       </c>
-      <c r="O13" s="15">
-        <f t="shared" si="3"/>
+      <c r="O13" s="14">
+        <f t="shared" si="4"/>
         <v>3.9299999999999997</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="9">
         <v>7</v>
       </c>
-      <c r="Y13" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y13" s="10" t="str">
+        <f t="shared" si="6"/>
         <v>0111</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="15">
         <f>I21</f>
         <v>8.0171055197905883</v>
       </c>
@@ -10940,56 +11125,54 @@
       <c r="C14" s="8">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>1.9228695979335186E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <f>D14</f>
         <v>1.9228695979335186E-2</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="K14" s="8">
         <v>8</v>
       </c>
-      <c r="L14" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14">
         <v>0.02</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14">
         <f>SUM($M$6:M14)</f>
         <v>3.9499999999999997</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11004,53 +11187,51 @@
       <c r="D15">
         <v>3.885487534582277E-2</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="F15">
         <f>SUM(D14:D15)</f>
         <v>5.8083571325157957E-2</v>
       </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="K15" s="8">
         <v>9</v>
       </c>
-      <c r="L15" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>1001</v>
       </c>
       <c r="M15">
         <v>0.04</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15">
         <f>SUM($M$6:M15)</f>
         <v>3.9899999999999998</v>
       </c>
-      <c r="O15" s="13">
-        <f t="shared" si="3"/>
+      <c r="O15" s="12">
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11065,53 +11246,51 @@
       <c r="D16">
         <v>0.28482595483157291</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <f>D16</f>
         <v>0.28482595483157291</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="K16" s="8">
         <v>10</v>
       </c>
-      <c r="L16" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L16" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>1010</v>
       </c>
       <c r="M16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16">
         <f>SUM($M$6:M16)</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11126,9 +11305,7 @@
       <c r="D17">
         <v>0.84539950852948498</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="G17">
         <f>SUM(D14:D17)</f>
         <v>1.188309034686216</v>
       </c>
@@ -11136,43 +11313,43 @@
       <c r="K17" s="8">
         <v>11</v>
       </c>
-      <c r="L17" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="L17" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>1011</v>
       </c>
       <c r="M17">
         <v>0.84</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17">
         <f>SUM($M$6:M17)</f>
         <v>5.1099999999999994</v>
       </c>
-      <c r="O17" s="14">
-        <f t="shared" si="3"/>
+      <c r="O17" s="13">
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11187,7 +11364,7 @@
       <c r="D18">
         <v>0.62321842262206639</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <f>D18</f>
         <v>0.62321842262206639</v>
       </c>
@@ -11197,43 +11374,43 @@
       <c r="K18" s="8">
         <v>12</v>
       </c>
-      <c r="L18" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L18" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
       <c r="M18">
         <v>0.62</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18">
         <f>SUM($M$6:M18)</f>
         <v>5.7299999999999995</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11258,43 +11435,43 @@
       <c r="K19" s="8">
         <v>13</v>
       </c>
-      <c r="L19" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L19" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>1101</v>
       </c>
       <c r="M19">
         <v>0.81</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19">
         <f>SUM($M$6:M19)</f>
         <v>6.5399999999999991</v>
       </c>
-      <c r="O19" s="13">
-        <f t="shared" si="3"/>
+      <c r="O19" s="12">
+        <f t="shared" si="4"/>
         <v>1.4300000000000002</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11309,53 +11486,52 @@
       <c r="D20">
         <v>0.97741793178470104</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <f>D20</f>
         <v>0.97741793178470104</v>
       </c>
-      <c r="F20" s="9"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="K20" s="8">
         <v>14</v>
       </c>
-      <c r="L20" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L20" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
       <c r="M20">
         <v>0.98</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20">
         <f>SUM($M$6:M20)</f>
         <v>7.52</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11370,8 +11546,6 @@
       <c r="D21">
         <v>0.65524565215638786</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21">
@@ -11381,43 +11555,43 @@
       <c r="K21" s="8">
         <v>15</v>
       </c>
-      <c r="L21" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="L21" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>1111</v>
       </c>
       <c r="M21">
         <v>0.66</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21">
         <f>SUM($M$6:M21)</f>
         <v>8.18</v>
       </c>
-      <c r="O21" s="16">
-        <f t="shared" si="3"/>
+      <c r="O21" s="15">
+        <f t="shared" si="4"/>
         <v>8.18</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -11450,4 +11624,3827 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04481C64-32A8-49FF-85DE-11438226E0B9}">
+  <dimension ref="A2:AI125"/>
+  <sheetViews>
+    <sheetView topLeftCell="O91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U96" sqref="U96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="12" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" t="s">
+        <v>90</v>
+      </c>
+      <c r="T16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f>H17*2+I17+K17*2+L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
+        <f>$N17-(O17*2+P17+Q17*2+R17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <f>$H17+$I17-O17-P17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f>SUM($H17:$L17)-SUM(O17:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16">
+        <f>$N17-(V17*2+W17+X17*2+Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" ref="AA17:AA31" si="0">$H17+$I17-V17-W17</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" ref="AB17:AB31" si="1">SUM($H17:$L17)-SUM(V17:Y17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N31" si="2">H18*2+I18+K18*2+L18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17">
+        <f t="shared" ref="S18:S31" si="3">$N18-(O18*2+P18+Q18*2+R18)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" ref="T18:T31" si="4">$H18+$I18-O18-P18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" ref="U18:U31" si="5">SUM($H18:$L18)-SUM(O18:R18)</f>
+        <v>1</v>
+      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16">
+        <f t="shared" ref="Z18:Z31" si="6">$N18-(V18*2+W18+X18*2+Y18)</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" t="s">
+        <v>82</v>
+      </c>
+      <c r="N35" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35" t="s">
+        <v>90</v>
+      </c>
+      <c r="T35" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35" t="s">
+        <v>86</v>
+      </c>
+      <c r="V35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <f>H36*2+I36+K36*2+L36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17">
+        <f>$N36-(O36*2+P36+Q36*2+R36)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="17">
+        <f>$H36+$I36-O36-P36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <f>SUM($H36:$L36)-SUM(O36:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16">
+        <f>$N36-(V36*2+W36+X36*2+Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="16">
+        <f t="shared" ref="AA36:AA50" si="7">$H36+$I36-V36-W36</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16">
+        <f t="shared" ref="AB36:AB50" si="8">SUM($H36:$L36)-SUM(V36:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16">
+        <f>$N36-(AC36*2+AD36+AE36*2+AF36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="16">
+        <f>$H36+$I36-AC36-AD36</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="16">
+        <f>SUM($H36:$L36)-SUM(AC36:AF36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N50" si="9">H37*2+I37+K37*2+L37</f>
+        <v>1</v>
+      </c>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17">
+        <f t="shared" ref="S37:S50" si="10">$N37-(O37*2+P37+Q37*2+R37)</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="17">
+        <f t="shared" ref="T37:T50" si="11">$H37+$I37-O37-P37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="17">
+        <f t="shared" ref="U37:U50" si="12">SUM($H37:$L37)-SUM(O37:R37)</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16">
+        <f t="shared" ref="Z37:Z50" si="13">$N37-(V37*2+W37+X37*2+Y37)</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16">
+        <f t="shared" ref="AG37:AG50" si="14">$N37-(AC37*2+AD37+AE37*2+AF37)</f>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="16">
+        <f t="shared" ref="AH37:AH50" si="15">$H37+$I37-AC37-AD37</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="16">
+        <f t="shared" ref="AI37:AI50" si="16">SUM($H37:$L37)-SUM(AC37:AF37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T38" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA38" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH38" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AH39" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI39" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA40" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB40" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH40" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI40" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="16">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH41" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="16">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AH42" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T43" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA43" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB43" s="16">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH43" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI43" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AH44" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AH45" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AH46" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI46" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T48" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U48" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AH48" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AI48" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AH49" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AI49" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AH50" s="16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AI50" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="V53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" t="s">
+        <v>81</v>
+      </c>
+      <c r="M54" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" t="s">
+        <v>83</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54" t="s">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s">
+        <v>90</v>
+      </c>
+      <c r="T54" t="s">
+        <v>85</v>
+      </c>
+      <c r="U54" t="s">
+        <v>86</v>
+      </c>
+      <c r="V54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <f>H55*2+I55+K55*2+L55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17">
+        <f>$N55-(O55*2+P55+Q55*2+R55)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="17">
+        <f>$H55+$I55-O55-P55</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="17">
+        <f>SUM($H55:$L55)-SUM(O55:R55)</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16">
+        <f>$N55-(V55*2+W55+X55*2+Y55)</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="16">
+        <f t="shared" ref="AA55:AA69" si="17">$H55+$I55-V55-W55</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16">
+        <f t="shared" ref="AB55:AB69" si="18">SUM($H55:$L55)-SUM(V55:Y55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N69" si="19">H56*2+I56+K56*2+L56</f>
+        <v>1</v>
+      </c>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17">
+        <f t="shared" ref="S56:S69" si="20">$N56-(O56*2+P56+Q56*2+R56)</f>
+        <v>1</v>
+      </c>
+      <c r="T56" s="17">
+        <f t="shared" ref="T56:T69" si="21">$H56+$I56-O56-P56</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="17">
+        <f t="shared" ref="U56:U69" si="22">SUM($H56:$L56)-SUM(O56:R56)</f>
+        <v>1</v>
+      </c>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16">
+        <f t="shared" ref="Z56:Z69" si="23">$N56-(V56*2+W56+X56*2+Y56)</f>
+        <v>1</v>
+      </c>
+      <c r="AA56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="T57" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="17">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AA57" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="T58" s="17">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U58" s="17">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AA58" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB58" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="T59" s="17">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U59" s="17">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AA59" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB59" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="T60" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AA60" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T61" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AA61" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="T62" s="17">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U62" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AA62" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB62" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T63" s="17">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U63" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AA63" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB63" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AA64" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T65" s="17">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AA65" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB65" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>13</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="T67" s="17">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="U67" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AA67" s="16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AB67" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T68" s="17">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="U68" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AA68" s="16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AB68" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AA69" s="16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AB69" s="16">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s">
+        <v>79</v>
+      </c>
+      <c r="K72" t="s">
+        <v>80</v>
+      </c>
+      <c r="L72" t="s">
+        <v>81</v>
+      </c>
+      <c r="M72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N72" t="s">
+        <v>83</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>80</v>
+      </c>
+      <c r="R72" t="s">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s">
+        <v>90</v>
+      </c>
+      <c r="T72" t="s">
+        <v>85</v>
+      </c>
+      <c r="U72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <f>H73*2+I73+K73*2+L73</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17">
+        <f>$N73-(O73*2+P73+Q73*2+R73)</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="17">
+        <f>$H73+$I73-O73-P73</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="17">
+        <f>SUM($H73:$L73)-SUM(O73:R73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:N87" si="24">H74*2+I74+K74*2+L74</f>
+        <v>1</v>
+      </c>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17">
+        <f t="shared" ref="S74:S87" si="25">$N74-(O74*2+P74+Q74*2+R74)</f>
+        <v>1</v>
+      </c>
+      <c r="T74" s="17">
+        <f t="shared" ref="T74:T87" si="26">$H74+$I74-O74-P74</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="17">
+        <f t="shared" ref="U74:U87" si="27">SUM($H74:$L74)-SUM(O74:R74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="T75" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="17">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="T76" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="17">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="T77" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U77" s="17">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="T78" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T79" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="T80" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U80" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T81" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U81" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T82" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>11</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T83" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U83" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>12</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T84" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U84" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="T85" s="17">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="U85" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>14</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T86" s="17">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="U86" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T87" s="17">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="U87" s="17">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" t="s">
+        <v>81</v>
+      </c>
+      <c r="M91" t="s">
+        <v>95</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
+        <v>96</v>
+      </c>
+      <c r="O92">
+        <f>B93+D93</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f>2*B92+C92</f>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f>2*D92+E92</f>
+        <v>3</v>
+      </c>
+      <c r="M93" t="s">
+        <v>98</v>
+      </c>
+      <c r="O93">
+        <f>O92-O91</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="M94" t="s">
+        <v>97</v>
+      </c>
+      <c r="O94">
+        <f>MIN(B93,D93,O93)</f>
+        <v>2</v>
+      </c>
+      <c r="W94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U95" s="1">
+        <v>4</v>
+      </c>
+      <c r="W95">
+        <f>U101+U109+U117+U125</f>
+        <v>6</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="O96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="s">
+        <v>93</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U96" s="1">
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <f>O91-O94</f>
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <f>$O$91-O97</f>
+        <v>2</v>
+      </c>
+      <c r="T97" t="s">
+        <v>123</v>
+      </c>
+      <c r="U97">
+        <f>U96</f>
+        <v>2</v>
+      </c>
+      <c r="X97">
+        <v>2</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f>O97+1</f>
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <f>$O$91-O98</f>
+        <v>1</v>
+      </c>
+      <c r="T98" t="s">
+        <v>121</v>
+      </c>
+      <c r="U98">
+        <f>U104+2*U112+U120</f>
+        <v>3</v>
+      </c>
+      <c r="X98">
+        <v>2</v>
+      </c>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ref="O99:O106" si="28">O98+1</f>
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ref="P99:P106" si="29">$O$91-O99</f>
+        <v>0</v>
+      </c>
+      <c r="T99" t="s">
+        <v>114</v>
+      </c>
+      <c r="U99">
+        <f>MIN(U95,U97)</f>
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <v>2</v>
+      </c>
+      <c r="Y99">
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="O100">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="T100" t="s">
+        <v>115</v>
+      </c>
+      <c r="U100">
+        <f>MAX(0,(U95-U98)/2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="O101">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="29"/>
+        <v>-2</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="29"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="29"/>
+        <v>-4</v>
+      </c>
+      <c r="T103" t="s">
+        <v>122</v>
+      </c>
+      <c r="U103">
+        <f>U95-U101</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="29"/>
+        <v>-5</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="29"/>
+        <v>-6</v>
+      </c>
+      <c r="T105" t="s">
+        <v>120</v>
+      </c>
+      <c r="U105">
+        <f>U104+U101</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="29"/>
+        <v>-7</v>
+      </c>
+      <c r="T106" t="s">
+        <v>119</v>
+      </c>
+      <c r="U106">
+        <f>2*U112+U120</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T107" t="s">
+        <v>114</v>
+      </c>
+      <c r="U107">
+        <f>MIN(U105,U103)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T108" t="s">
+        <v>115</v>
+      </c>
+      <c r="U108">
+        <f>MAX(0,U103-U106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T111" t="s">
+        <v>117</v>
+      </c>
+      <c r="U111">
+        <f>U103-U109</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T113" t="s">
+        <v>125</v>
+      </c>
+      <c r="U113">
+        <f>U112</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T114" t="s">
+        <v>121</v>
+      </c>
+      <c r="U114">
+        <f>U120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T115" t="s">
+        <v>114</v>
+      </c>
+      <c r="U115">
+        <f>MIN(U111,U113)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T116" t="s">
+        <v>115</v>
+      </c>
+      <c r="U116">
+        <f>MAX(0,(U111-U114)/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="T119" t="s">
+        <v>122</v>
+      </c>
+      <c r="U119">
+        <f>U111-U117</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="120" spans="9:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I120" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J120" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K120" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L120" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>99</v>
+      </c>
+      <c r="J121" t="s">
+        <v>105</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="T121" t="s">
+        <v>126</v>
+      </c>
+      <c r="U121">
+        <f>U120+U117</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>100</v>
+      </c>
+      <c r="J122" t="s">
+        <v>106</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="T122" t="s">
+        <v>119</v>
+      </c>
+      <c r="U122">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>102</v>
+      </c>
+      <c r="J123" t="s">
+        <v>107</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+      <c r="L123">
+        <v>6</v>
+      </c>
+      <c r="T123" t="s">
+        <v>114</v>
+      </c>
+      <c r="U123">
+        <f>MIN(U121,U119)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="124" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>103</v>
+      </c>
+      <c r="J124" t="s">
+        <v>108</v>
+      </c>
+      <c r="K124">
+        <v>6</v>
+      </c>
+      <c r="L124">
+        <v>7</v>
+      </c>
+      <c r="T124" t="s">
+        <v>115</v>
+      </c>
+      <c r="U124">
+        <f>MAX(0,U119-U122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>104</v>
+      </c>
+      <c r="J125" t="s">
+        <v>109</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+      <c r="L125">
+        <v>8</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D50FAB-2C5A-4283-9C63-971E0CF992EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>